--- a/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="371">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>UT(0-2-26)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +1856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K640" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K640"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K641" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K641"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2183,11 +2186,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K640"/>
+  <dimension ref="A2:K641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A603" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E608" sqref="E608"/>
+      <pane ySplit="3405" topLeftCell="A594" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F605" sqref="F605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2357,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.120999999999924</v>
+        <v>72.706999999999937</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15166,19 +15169,19 @@
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B604" s="20"/>
-      <c r="C604" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D604" s="39"/>
+      <c r="A604" s="40"/>
+      <c r="B604" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
@@ -15187,156 +15190,156 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B605" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C605" s="13"/>
+        <v>363</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D605" s="39">
-        <v>1</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40"/>
+      <c r="A606" s="40">
+        <v>44713</v>
+      </c>
       <c r="B606" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C606" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D606" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39">
+        <v>1</v>
+      </c>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
       <c r="K606" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C607" s="13"/>
-      <c r="D607" s="39">
-        <v>0.30399999999999999</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C607" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D607" s="39"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G607" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
+      <c r="K607" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="C608" s="13"/>
-      <c r="D608" s="39"/>
+      <c r="D608" s="39">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
       <c r="G608" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H608" s="39">
-        <v>1</v>
-      </c>
+      <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="49">
-        <v>44749</v>
-      </c>
+      <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="40"/>
+      <c r="A609" s="40">
+        <v>44743</v>
+      </c>
       <c r="B609" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C609" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D609" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H609" s="39"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39">
+        <v>1</v>
+      </c>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20" t="s">
-        <v>101</v>
+      <c r="K609" s="49">
+        <v>44749</v>
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C610" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C610" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D610" s="39">
-        <v>0.19400000000000001</v>
+        <v>1</v>
       </c>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G610" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H610" s="39"/>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="20"/>
+      <c r="K610" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C611" s="13">
-        <v>1.25</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C611" s="13"/>
       <c r="D611" s="39">
-        <v>0.23500000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
@@ -15345,16 +15348,16 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B612" s="20" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="C612" s="13">
         <v>1.25</v>
       </c>
       <c r="D612" s="39">
-        <v>1</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="E612" s="9"/>
       <c r="F612" s="20"/>
@@ -15365,68 +15368,70 @@
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="49">
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="40">
         <v>44805</v>
       </c>
-    </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C613" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="C613" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D613" s="39">
-        <v>5.8000000000000017E-2</v>
+        <v>1</v>
       </c>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
-      <c r="G613" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G613" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="49"/>
+      <c r="K613" s="49">
+        <v>44805</v>
+      </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C614" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D614" s="39"/>
+        <v>142</v>
+      </c>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H614" s="39">
-        <v>1</v>
-      </c>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="49">
-        <v>44858</v>
-      </c>
+      <c r="K614" s="49"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40"/>
+      <c r="A615" s="40">
+        <v>44835</v>
+      </c>
       <c r="B615" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C615" s="13"/>
+      <c r="C615" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D615" s="39"/>
       <c r="E615" s="9"/>
       <c r="F615" s="20"/>
-      <c r="G615" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G615" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H615" s="39">
         <v>1</v>
@@ -15434,65 +15439,63 @@
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
       <c r="K615" s="49">
-        <v>44845</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="C616" s="13"/>
-      <c r="D616" s="39">
-        <v>0.25</v>
-      </c>
+      <c r="D616" s="39"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
       <c r="G616" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H616" s="39"/>
+      <c r="H616" s="39">
+        <v>1</v>
+      </c>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="49"/>
+      <c r="K616" s="49">
+        <v>44845</v>
+      </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C617" s="13">
-        <v>1.25</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C617" s="13"/>
       <c r="D617" s="39">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="20"/>
+      <c r="K617" s="49"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B618" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C618" s="13">
         <v>1.25</v>
       </c>
       <c r="D618" s="39">
-        <v>0.13100000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E618" s="9"/>
       <c r="F618" s="20"/>
@@ -15506,17 +15509,23 @@
       <c r="K618" s="20"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B619" s="20"/>
-      <c r="C619" s="13"/>
-      <c r="D619" s="39"/>
+      <c r="A619" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B619" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C619" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D619" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G619" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
@@ -15524,32 +15533,26 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B620" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C620" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A620" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
       <c r="D620" s="39"/>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="49">
-        <v>44956</v>
-      </c>
+      <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B621" s="20" t="s">
         <v>103</v>
@@ -15568,15 +15571,15 @@
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
       <c r="K621" s="49">
-        <v>44967</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B622" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C622" s="13">
         <v>1.25</v>
@@ -15588,96 +15591,98 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H622" s="39">
-        <v>1</v>
-      </c>
+      <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
       <c r="K622" s="49">
-        <v>45000</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="40"/>
+      <c r="A623" s="40">
+        <v>44986</v>
+      </c>
       <c r="B623" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C623" s="13"/>
-      <c r="D623" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C623" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D623" s="39"/>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H623" s="39"/>
+      <c r="G623" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H623" s="39">
+        <v>1</v>
+      </c>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
       <c r="K623" s="49">
-        <v>44995</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A624" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C624" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D624" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="C624" s="13"/>
+      <c r="D624" s="39">
+        <v>1</v>
+      </c>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H624" s="39">
-        <v>1</v>
-      </c>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="49">
-        <v>45042</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B625" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C625" s="13"/>
-      <c r="D625" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C625" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D625" s="39"/>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
-      <c r="G625" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H625" s="39"/>
+      <c r="G625" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H625" s="39">
+        <v>1</v>
+      </c>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
       <c r="K625" s="49">
-        <v>45061</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B626" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C626" s="13"/>
-      <c r="D626" s="39"/>
+      <c r="D626" s="39">
+        <v>1</v>
+      </c>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
       <c r="G626" s="13" t="str">
@@ -15688,18 +15693,18 @@
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
       <c r="K626" s="49">
-        <v>45092</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" s="40"/>
+      <c r="A627" s="40">
+        <v>45078</v>
+      </c>
       <c r="B627" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C627" s="13"/>
-      <c r="D627" s="39">
-        <v>1</v>
-      </c>
+      <c r="D627" s="39"/>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
       <c r="G627" s="13" t="str">
@@ -15710,13 +15715,13 @@
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
       <c r="K627" s="49">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C628" s="13"/>
       <c r="D628" s="39">
@@ -15732,16 +15737,18 @@
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
       <c r="K628" s="49">
-        <v>45107</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B629" s="20"/>
+      <c r="A629" s="40"/>
+      <c r="B629" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C629" s="13"/>
-      <c r="D629" s="39"/>
+      <c r="D629" s="39">
+        <v>1</v>
+      </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
       <c r="G629" s="13" t="str">
@@ -15751,11 +15758,13 @@
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="49">
+        <v>45107</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15773,7 +15782,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15791,7 +15800,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15809,7 +15818,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15827,7 +15836,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15845,7 +15854,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15863,7 +15872,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15881,7 +15890,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15899,7 +15908,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15916,7 +15925,9 @@
       <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40"/>
+      <c r="A639" s="40">
+        <v>45383</v>
+      </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
@@ -15932,20 +15943,36 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="41"/>
-      <c r="B640" s="15"/>
-      <c r="C640" s="42"/>
-      <c r="D640" s="43"/>
+      <c r="A640" s="40"/>
+      <c r="B640" s="20"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="39"/>
       <c r="E640" s="9"/>
-      <c r="F640" s="15"/>
-      <c r="G640" s="42" t="str">
+      <c r="F640" s="20"/>
+      <c r="G640" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H640" s="43"/>
+      <c r="H640" s="39"/>
       <c r="I640" s="9"/>
-      <c r="J640" s="12"/>
-      <c r="K640" s="15"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="20"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" s="41"/>
+      <c r="B641" s="15"/>
+      <c r="C641" s="42"/>
+      <c r="D641" s="43"/>
+      <c r="E641" s="9"/>
+      <c r="F641" s="15"/>
+      <c r="G641" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H641" s="43"/>
+      <c r="I641" s="9"/>
+      <c r="J641" s="12"/>
+      <c r="K641" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16058,14 +16085,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.30399999999999999</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="371">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1856,8 +1856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K641" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K641"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K642" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K642"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2186,11 +2186,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K641"/>
+  <dimension ref="A2:K642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A594" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F605" sqref="F605"/>
+      <pane ySplit="3405" topLeftCell="A591" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E606" sqref="E606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2357,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.706999999999937</v>
+        <v>72.669999999999959</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15143,69 +15143,65 @@
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C603" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D603" s="39"/>
+        <v>277</v>
+      </c>
+      <c r="C603" s="13"/>
+      <c r="D603" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H603" s="39">
-        <v>1</v>
-      </c>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40"/>
+      <c r="A604" s="40">
+        <v>44652</v>
+      </c>
       <c r="B604" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C604" s="13"/>
-      <c r="D604" s="39">
-        <v>7.7000000000000013E-2</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C604" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D604" s="39"/>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H604" s="39"/>
+      <c r="G604" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H604" s="39">
+        <v>1</v>
+      </c>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
+      <c r="K604" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C605" s="13">
-        <v>1.25</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C605" s="13"/>
       <c r="D605" s="39">
-        <v>0.33700000000000002</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
@@ -15214,156 +15210,156 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C606" s="13"/>
+        <v>363</v>
+      </c>
+      <c r="C606" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D606" s="39">
-        <v>1</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G606" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40"/>
+      <c r="A607" s="40">
+        <v>44713</v>
+      </c>
       <c r="B607" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C607" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D607" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39">
+        <v>1</v>
+      </c>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
       <c r="K607" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C608" s="13"/>
-      <c r="D608" s="39">
-        <v>0.30399999999999999</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C608" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D608" s="39"/>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
-      <c r="G608" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G608" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
+      <c r="K608" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="C609" s="13"/>
-      <c r="D609" s="39"/>
+      <c r="D609" s="39">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
       <c r="G609" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H609" s="39">
-        <v>1</v>
-      </c>
+      <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="49">
-        <v>44749</v>
-      </c>
+      <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="40"/>
+      <c r="A610" s="40">
+        <v>44743</v>
+      </c>
       <c r="B610" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C610" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D610" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H610" s="39"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39">
+        <v>1</v>
+      </c>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="20" t="s">
-        <v>101</v>
+      <c r="K610" s="49">
+        <v>44749</v>
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C611" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C611" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D611" s="39">
-        <v>0.19400000000000001</v>
+        <v>1</v>
       </c>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G611" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="20"/>
+      <c r="K611" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C612" s="13">
-        <v>1.25</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C612" s="13"/>
       <c r="D612" s="39">
-        <v>0.23500000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E612" s="9"/>
       <c r="F612" s="20"/>
-      <c r="G612" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
@@ -15372,16 +15368,16 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B613" s="20" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="C613" s="13">
         <v>1.25</v>
       </c>
       <c r="D613" s="39">
-        <v>1</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
@@ -15392,68 +15388,70 @@
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="49">
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="40">
         <v>44805</v>
       </c>
-    </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C614" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="C614" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D614" s="39">
-        <v>5.8000000000000017E-2</v>
+        <v>1</v>
       </c>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G614" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="49"/>
+      <c r="K614" s="49">
+        <v>44805</v>
+      </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C615" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D615" s="39"/>
+        <v>142</v>
+      </c>
+      <c r="C615" s="13"/>
+      <c r="D615" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
       <c r="E615" s="9"/>
       <c r="F615" s="20"/>
-      <c r="G615" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H615" s="39">
-        <v>1</v>
-      </c>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="39"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="49">
-        <v>44858</v>
-      </c>
+      <c r="K615" s="49"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>44835</v>
+      </c>
       <c r="B616" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C616" s="13"/>
+      <c r="C616" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D616" s="39"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G616" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H616" s="39">
         <v>1</v>
@@ -15461,65 +15459,63 @@
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
       <c r="K616" s="49">
-        <v>44845</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="C617" s="13"/>
-      <c r="D617" s="39">
-        <v>0.25</v>
-      </c>
+      <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
       <c r="G617" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H617" s="39"/>
+      <c r="H617" s="39">
+        <v>1</v>
+      </c>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="49"/>
+      <c r="K617" s="49">
+        <v>44845</v>
+      </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C618" s="13">
-        <v>1.25</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C618" s="13"/>
       <c r="D618" s="39">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E618" s="9"/>
       <c r="F618" s="20"/>
-      <c r="G618" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="20"/>
+      <c r="K618" s="49"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B619" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C619" s="13">
         <v>1.25</v>
       </c>
       <c r="D619" s="39">
-        <v>0.13100000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
@@ -15533,17 +15529,23 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B620" s="20"/>
-      <c r="C620" s="13"/>
-      <c r="D620" s="39"/>
+      <c r="A620" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B620" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C620" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D620" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G620" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
@@ -15551,32 +15553,26 @@
       <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A621" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B621" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C621" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A621" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
       <c r="D621" s="39"/>
       <c r="E621" s="9"/>
       <c r="F621" s="20"/>
-      <c r="G621" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H621" s="39"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="49">
-        <v>44956</v>
-      </c>
+      <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B622" s="20" t="s">
         <v>103</v>
@@ -15595,15 +15591,15 @@
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
       <c r="K622" s="49">
-        <v>44967</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B623" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C623" s="13">
         <v>1.25</v>
@@ -15615,96 +15611,98 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H623" s="39">
-        <v>1</v>
-      </c>
+      <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
       <c r="K623" s="49">
-        <v>45000</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A624" s="40"/>
+      <c r="A624" s="40">
+        <v>44986</v>
+      </c>
       <c r="B624" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C624" s="13"/>
-      <c r="D624" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C624" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D624" s="39"/>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H624" s="39"/>
+      <c r="G624" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H624" s="39">
+        <v>1</v>
+      </c>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="49">
-        <v>44995</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C625" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D625" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="C625" s="13"/>
+      <c r="D625" s="39">
+        <v>1</v>
+      </c>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
-      <c r="G625" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H625" s="39">
-        <v>1</v>
-      </c>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
       <c r="K625" s="49">
-        <v>45042</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B626" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C626" s="13"/>
-      <c r="D626" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C626" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D626" s="39"/>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H626" s="39"/>
+      <c r="G626" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H626" s="39">
+        <v>1</v>
+      </c>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
       <c r="K626" s="49">
-        <v>45061</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B627" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C627" s="13"/>
-      <c r="D627" s="39"/>
+      <c r="D627" s="39">
+        <v>1</v>
+      </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
       <c r="G627" s="13" t="str">
@@ -15715,18 +15713,18 @@
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
       <c r="K627" s="49">
-        <v>45092</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>45078</v>
+      </c>
       <c r="B628" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C628" s="13"/>
-      <c r="D628" s="39">
-        <v>1</v>
-      </c>
+      <c r="D628" s="39"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
       <c r="G628" s="13" t="str">
@@ -15737,13 +15735,13 @@
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
       <c r="K628" s="49">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C629" s="13"/>
       <c r="D629" s="39">
@@ -15759,16 +15757,18 @@
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
       <c r="K629" s="49">
-        <v>45107</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B630" s="20"/>
+      <c r="A630" s="40"/>
+      <c r="B630" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C630" s="13"/>
-      <c r="D630" s="39"/>
+      <c r="D630" s="39">
+        <v>1</v>
+      </c>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
       <c r="G630" s="13" t="str">
@@ -15778,11 +15778,13 @@
       <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
+      <c r="K630" s="49">
+        <v>45107</v>
+      </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15800,7 +15802,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15818,7 +15820,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15836,7 +15838,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15854,7 +15856,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15872,7 +15874,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15890,7 +15892,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15908,7 +15910,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15926,7 +15928,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15943,7 +15945,9 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40"/>
+      <c r="A640" s="40">
+        <v>45383</v>
+      </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -15959,20 +15963,36 @@
       <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="41"/>
-      <c r="B641" s="15"/>
-      <c r="C641" s="42"/>
-      <c r="D641" s="43"/>
+      <c r="A641" s="40"/>
+      <c r="B641" s="20"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="39"/>
       <c r="E641" s="9"/>
-      <c r="F641" s="15"/>
-      <c r="G641" s="42" t="str">
+      <c r="F641" s="20"/>
+      <c r="G641" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H641" s="43"/>
+      <c r="H641" s="39"/>
       <c r="I641" s="9"/>
-      <c r="J641" s="12"/>
-      <c r="K641" s="15"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="20"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="41"/>
+      <c r="B642" s="15"/>
+      <c r="C642" s="42"/>
+      <c r="D642" s="43"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="15"/>
+      <c r="G642" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="43"/>
+      <c r="I642" s="9"/>
+      <c r="J642" s="12"/>
+      <c r="K642" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16088,11 +16108,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.7000000000000013E-2</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="372">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1156,6 +1156,9 @@
   </si>
   <si>
     <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1856,8 +1859,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K642" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K642"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K643" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K643"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2186,11 +2189,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K642"/>
+  <dimension ref="A2:K643"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A591" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E606" sqref="E606"/>
+      <pane ySplit="3405" topLeftCell="A618" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G639" sqref="G639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2360,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.669999999999959</v>
+        <v>80.419999999999959</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2367,7 +2370,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.58299999999997</v>
+        <v>58.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15699,15 +15702,17 @@
       <c r="B627" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C627" s="13"/>
+      <c r="C627" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D627" s="39">
         <v>1</v>
       </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G627" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
@@ -15723,13 +15728,15 @@
       <c r="B628" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C628" s="13"/>
+      <c r="C628" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D628" s="39"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G628" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
@@ -15787,13 +15794,15 @@
         <v>45108</v>
       </c>
       <c r="B631" s="20"/>
-      <c r="C631" s="13"/>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
@@ -15805,13 +15814,15 @@
         <v>45139</v>
       </c>
       <c r="B632" s="20"/>
-      <c r="C632" s="13"/>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
@@ -15823,13 +15834,15 @@
         <v>45170</v>
       </c>
       <c r="B633" s="20"/>
-      <c r="C633" s="13"/>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D633" s="39"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
@@ -15841,13 +15854,15 @@
         <v>45200</v>
       </c>
       <c r="B634" s="20"/>
-      <c r="C634" s="13"/>
+      <c r="C634" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G634" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
@@ -15858,27 +15873,39 @@
       <c r="A635" s="40">
         <v>45231</v>
       </c>
-      <c r="B635" s="20"/>
-      <c r="C635" s="13"/>
+      <c r="B635" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H635" s="39"/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H635" s="39">
+        <v>1</v>
+      </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="49">
+        <v>45240</v>
+      </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>45261</v>
       </c>
-      <c r="B636" s="20"/>
+      <c r="B636" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C636" s="13"/>
-      <c r="D636" s="39"/>
+      <c r="D636" s="39">
+        <v>1</v>
+      </c>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
       <c r="G636" s="13" t="str">
@@ -15888,11 +15915,13 @@
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="49">
+        <v>45288</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40">
-        <v>45292</v>
+      <c r="A637" s="48" t="s">
+        <v>371</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15910,7 +15939,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15928,7 +15957,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15946,7 +15975,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15963,7 +15992,9 @@
       <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="40"/>
+      <c r="A641" s="40">
+        <v>45383</v>
+      </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
       <c r="D641" s="39"/>
@@ -15979,20 +16010,36 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="41"/>
-      <c r="B642" s="15"/>
-      <c r="C642" s="42"/>
-      <c r="D642" s="43"/>
+      <c r="A642" s="40"/>
+      <c r="B642" s="20"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="39"/>
       <c r="E642" s="9"/>
-      <c r="F642" s="15"/>
-      <c r="G642" s="42" t="str">
+      <c r="F642" s="20"/>
+      <c r="G642" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H642" s="43"/>
+      <c r="H642" s="39"/>
       <c r="I642" s="9"/>
-      <c r="J642" s="12"/>
-      <c r="K642" s="15"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="20"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" s="41"/>
+      <c r="B643" s="15"/>
+      <c r="C643" s="42"/>
+      <c r="D643" s="43"/>
+      <c r="E643" s="9"/>
+      <c r="F643" s="15"/>
+      <c r="G643" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H643" s="43"/>
+      <c r="I643" s="9"/>
+      <c r="J643" s="12"/>
+      <c r="K643" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="375">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1159,6 +1159,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-3-3)</t>
   </si>
 </sst>
 </file>
@@ -1859,8 +1868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K643" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K643"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K645" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K645"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2189,11 +2198,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K643"/>
+  <dimension ref="A2:K645"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="3405" topLeftCell="A618" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="G639" sqref="G639"/>
+      <selection pane="bottomLeft" activeCell="C637" sqref="C637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2369,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.419999999999959</v>
+        <v>81.109000000000037</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2370,7 +2379,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.33299999999997</v>
+        <v>59.58299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15793,11 +15802,15 @@
       <c r="A631" s="40">
         <v>45108</v>
       </c>
-      <c r="B631" s="20"/>
+      <c r="B631" s="20" t="s">
+        <v>374</v>
+      </c>
       <c r="C631" s="13">
         <v>1.25</v>
       </c>
-      <c r="D631" s="39"/>
+      <c r="D631" s="39">
+        <v>0.38100000000000001</v>
+      </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
       <c r="G631" s="13">
@@ -15813,11 +15826,15 @@
       <c r="A632" s="40">
         <v>45139</v>
       </c>
-      <c r="B632" s="20"/>
+      <c r="B632" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C632" s="13">
         <v>1.25</v>
       </c>
-      <c r="D632" s="39"/>
+      <c r="D632" s="39">
+        <v>1.2E-2</v>
+      </c>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
       <c r="G632" s="13">
@@ -15833,11 +15850,15 @@
       <c r="A633" s="40">
         <v>45170</v>
       </c>
-      <c r="B633" s="20"/>
+      <c r="B633" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="C633" s="13">
         <v>1.25</v>
       </c>
-      <c r="D633" s="39"/>
+      <c r="D633" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
       <c r="G633" s="13">
@@ -15853,11 +15874,15 @@
       <c r="A634" s="40">
         <v>45200</v>
       </c>
-      <c r="B634" s="20"/>
+      <c r="B634" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="C634" s="13">
         <v>1.25</v>
       </c>
-      <c r="D634" s="39"/>
+      <c r="D634" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
       <c r="G634" s="13">
@@ -15896,15 +15921,13 @@
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="C636" s="13"/>
       <c r="D636" s="39">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
@@ -15915,35 +15938,43 @@
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="49">
-        <v>45288</v>
-      </c>
+      <c r="K636" s="49"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
-      <c r="D637" s="39"/>
+      <c r="A637" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B637" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D637" s="39">
+        <v>1</v>
+      </c>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G637" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="49">
+        <v>45288</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B638" s="20"/>
+      <c r="A638" s="40"/>
+      <c r="B638" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="C638" s="13"/>
-      <c r="D638" s="39"/>
+      <c r="D638" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
       <c r="G638" s="13" t="str">
@@ -15953,11 +15984,11 @@
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="49"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40">
-        <v>45323</v>
+      <c r="A639" s="48" t="s">
+        <v>371</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15975,7 +16006,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15993,7 +16024,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16010,7 +16041,9 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40"/>
+      <c r="A642" s="40">
+        <v>45352</v>
+      </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="39"/>
@@ -16026,20 +16059,54 @@
       <c r="K642" s="20"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="41"/>
-      <c r="B643" s="15"/>
-      <c r="C643" s="42"/>
-      <c r="D643" s="43"/>
+      <c r="A643" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B643" s="20"/>
+      <c r="C643" s="13"/>
+      <c r="D643" s="39"/>
       <c r="E643" s="9"/>
-      <c r="F643" s="15"/>
-      <c r="G643" s="42" t="str">
+      <c r="F643" s="20"/>
+      <c r="G643" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H643" s="43"/>
+      <c r="H643" s="39"/>
       <c r="I643" s="9"/>
-      <c r="J643" s="12"/>
-      <c r="K643" s="15"/>
+      <c r="J643" s="11"/>
+      <c r="K643" s="20"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" s="40"/>
+      <c r="B644" s="20"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="39"/>
+      <c r="E644" s="9"/>
+      <c r="F644" s="20"/>
+      <c r="G644" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H644" s="39"/>
+      <c r="I644" s="9"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="20"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" s="41"/>
+      <c r="B645" s="15"/>
+      <c r="C645" s="42"/>
+      <c r="D645" s="43"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="15"/>
+      <c r="G645" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H645" s="43"/>
+      <c r="I645" s="9"/>
+      <c r="J645" s="12"/>
+      <c r="K645" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16152,14 +16219,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.7000000000000019E-2</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/CTO/DIMAPILIS JOSEPHINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="377">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1168,6 +1168,12 @@
   </si>
   <si>
     <t>UT(0-3-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
   </si>
 </sst>
 </file>
@@ -1868,8 +1874,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K645" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K645"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K649" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K649"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2198,11 +2204,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K645"/>
+  <dimension ref="A2:K649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="3405" topLeftCell="A618" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C637" sqref="C637"/>
+      <selection pane="bottomLeft" activeCell="F632" sqref="F632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2375,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.109000000000037</v>
+        <v>80.923999999999978</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15607,35 +15613,31 @@
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C623" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D623" s="39"/>
+        <v>376</v>
+      </c>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="49">
-        <v>44967</v>
-      </c>
+      <c r="K623" s="49"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B624" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C624" s="13">
         <v>1.25</v>
@@ -15647,23 +15649,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H624" s="39">
-        <v>1</v>
-      </c>
+      <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="49">
-        <v>45000</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
-        <v>122</v>
+        <v>375</v>
       </c>
       <c r="C625" s="13"/>
       <c r="D625" s="39">
-        <v>1</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
@@ -15674,13 +15674,11 @@
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="49">
-        <v>44995</v>
-      </c>
+      <c r="K625" s="49"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B626" s="20" t="s">
         <v>104</v>
@@ -15701,89 +15699,85 @@
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
       <c r="K626" s="49">
-        <v>45042</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C627" s="13">
-        <v>1.25</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C627" s="13"/>
       <c r="D627" s="39">
         <v>1</v>
       </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
       <c r="K627" s="49">
-        <v>45061</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C628" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D628" s="39"/>
+        <v>130</v>
+      </c>
+      <c r="C628" s="13"/>
+      <c r="D628" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G628" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="49">
-        <v>45092</v>
-      </c>
+      <c r="K628" s="49"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40"/>
+      <c r="A629" s="40">
+        <v>45017</v>
+      </c>
       <c r="B629" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C629" s="13"/>
-      <c r="D629" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C629" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D629" s="39"/>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H629" s="39"/>
+      <c r="G629" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H629" s="39">
+        <v>1</v>
+      </c>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
       <c r="K629" s="49">
-        <v>45091</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="39">
-        <v>1</v>
+        <v>3.5000000000000017E-2</v>
       </c>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
@@ -15794,22 +15788,20 @@
       <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="49">
-        <v>45107</v>
-      </c>
+      <c r="K630" s="49"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B631" s="20" t="s">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="C631" s="13">
         <v>1.25</v>
       </c>
       <c r="D631" s="39">
-        <v>0.38100000000000001</v>
+        <v>1</v>
       </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
@@ -15820,21 +15812,21 @@
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="20"/>
+      <c r="K631" s="49">
+        <v>45061</v>
+      </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B632" s="20" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C632" s="13">
         <v>1.25</v>
       </c>
-      <c r="D632" s="39">
-        <v>1.2E-2</v>
-      </c>
+      <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
       <c r="G632" s="13">
@@ -15844,114 +15836,114 @@
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="49">
+        <v>45092</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="C633" s="13">
-        <v>1.25</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C633" s="13"/>
       <c r="D633" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="49">
+        <v>45091</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C634" s="13">
-        <v>1.25</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C634" s="13"/>
       <c r="D634" s="39">
-        <v>7.7000000000000013E-2</v>
+        <v>1</v>
       </c>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
+      <c r="K634" s="49">
+        <v>45107</v>
+      </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B635" s="20" t="s">
-        <v>104</v>
+        <v>374</v>
       </c>
       <c r="C635" s="13">
         <v>1.25</v>
       </c>
-      <c r="D635" s="39"/>
+      <c r="D635" s="39">
+        <v>0.38100000000000001</v>
+      </c>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
       <c r="G635" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H635" s="39">
-        <v>1</v>
-      </c>
+      <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="49">
-        <v>45240</v>
-      </c>
+      <c r="K635" s="20"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40"/>
+      <c r="A636" s="40">
+        <v>45139</v>
+      </c>
       <c r="B636" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C636" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="39">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G636" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="49"/>
+      <c r="K636" s="20"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B637" s="20" t="s">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="C637" s="13">
         <v>1.25</v>
       </c>
       <c r="D637" s="39">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
@@ -15962,55 +15954,67 @@
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="49">
-        <v>45288</v>
-      </c>
+      <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40"/>
+      <c r="A638" s="40">
+        <v>45200</v>
+      </c>
       <c r="B638" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="C638" s="13"/>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D638" s="39">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="49"/>
+      <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="B639" s="20"/>
-      <c r="C639" s="13"/>
+      <c r="A639" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B639" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H639" s="39"/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H639" s="39">
+        <v>1</v>
+      </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="K639" s="49">
+        <v>45240</v>
+      </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B640" s="20"/>
+      <c r="A640" s="40"/>
+      <c r="B640" s="20" t="s">
+        <v>372</v>
+      </c>
       <c r="C640" s="13"/>
-      <c r="D640" s="39"/>
+      <c r="D640" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
       <c r="G640" s="13" t="str">
@@ -16020,33 +16024,43 @@
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
+      <c r="K640" s="49"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B641" s="20"/>
-      <c r="C641" s="13"/>
-      <c r="D641" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B641" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D641" s="39">
+        <v>1</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
+      <c r="K641" s="49">
+        <v>45288</v>
+      </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B642" s="20"/>
+      <c r="A642" s="40"/>
+      <c r="B642" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="C642" s="13"/>
-      <c r="D642" s="39"/>
+      <c r="D642" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
       <c r="G642" s="13" t="str">
@@ -16056,11 +16070,11 @@
       <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="49"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="40">
-        <v>45383</v>
+      <c r="A643" s="48" t="s">
+        <v>371</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16077,7 +16091,9 @@
       <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="40"/>
+      <c r="A644" s="40">
+        <v>45292</v>
+      </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
       <c r="D644" s="39"/>
@@ -16093,20 +16109,90 @@
       <c r="K644" s="20"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="41"/>
-      <c r="B645" s="15"/>
-      <c r="C645" s="42"/>
-      <c r="D645" s="43"/>
+      <c r="A645" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B645" s="20"/>
+      <c r="C645" s="13"/>
+      <c r="D645" s="39"/>
       <c r="E645" s="9"/>
-      <c r="F645" s="15"/>
-      <c r="G645" s="42" t="str">
+      <c r="F645" s="20"/>
+      <c r="G645" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H645" s="43"/>
+      <c r="H645" s="39"/>
       <c r="I645" s="9"/>
-      <c r="J645" s="12"/>
-      <c r="K645" s="15"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="20"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B646" s="20"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="39"/>
+      <c r="E646" s="9"/>
+      <c r="F646" s="20"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="39"/>
+      <c r="I646" s="9"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="20"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B647" s="20"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="39"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="20"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="39"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="20"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" s="40"/>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="39"/>
+      <c r="E648" s="9"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="39"/>
+      <c r="I648" s="9"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="20"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" s="41"/>
+      <c r="B649" s="15"/>
+      <c r="C649" s="42"/>
+      <c r="D649" s="43"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="15"/>
+      <c r="G649" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="43"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="12"/>
+      <c r="K649" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16218,15 +16304,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>3</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.38100000000000001</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
